--- a/biology/Zoologie/Hemaris/Hemaris.xlsx
+++ b/biology/Zoologie/Hemaris/Hemaris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hemaris est un genre de lépidoptères (papillons) de la famille des Sphingidae, sous-famille des Macroglossinae, tribu des Dilophonotini, sous-tribu des Hemarina. 
 Ces papillons, bien qu'ils soient des hétérocères (communément appelés papillons de nuit), sont diurnes, ils volent et butinent en plein jour. On les reconnait par la transparence de leurs ailes et leur allure d'oiseau-mouche.
@@ -512,22 +524,92 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Hemaris a été décrit par l'entomologiste suédois Johan Wilhelm Dalman, en 1816[1].
-L'espèce type pour le genre est Hemaris fuciformis (Linnaeus, 1758).
-Synonymie
-Hemaria Billberg, 1820[2]
-Haemorrhagia Grote &amp; Robinson, 1865[3]
-Aege R. Felder, 1874[4]
-Chamaesesia Grote, 1877[5]
-Cochrania Tutt, 1902[6]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le genre Hemaris a été décrit par l'entomologiste suédois Johan Wilhelm Dalman, en 1816.
+L'espèce type pour le genre est Hemaris fuciformis (Linnaeus, 1758).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hemaris</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hemaris</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Hemaria Billberg, 1820
+Haemorrhagia Grote &amp; Robinson, 1865
+Aege R. Felder, 1874
+Chamaesesia Grote, 1877
+Cochrania Tutt, 1902
 Saundersia Eitschberger, Danner &amp; Surholt, 1998
 Mandarina Eitschberger, Danner &amp; Surholt, 1998
 Jilinga Eitschberger, Danner &amp; Surholt, 1998
-Eitschbergera Kemal &amp; Koçak, 2005
-Taxinomie
-Il existe deux sous-genres.
+Eitschbergera Kemal &amp; Koçak, 2005</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hemaris</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hemaris</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe deux sous-genres.
 Liste des espèces par sous-genre
 Hemaris (Eitschbergera) Kemal &amp; Koçak, 2005
 Hemaris (Eitschbergera) aksana
